--- a/2025_Dhwanit_One_to_one/02 Advanced Excel/jun24.xlsx
+++ b/2025_Dhwanit_One_to_one/02 Advanced Excel/jun24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_Dhwanit_One_to_one\02 Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171BAD5-04E1-476C-8FB3-71B0781D4069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1BF46-20E1-4701-8ACA-DDC39F2A8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC0E3AFF-C2B3-4F6D-972A-E31AA2734485}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,17 +527,33 @@
       <c r="C2">
         <v>32</v>
       </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <f>D2+$D$20</f>
+        <v>74</v>
+      </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
         <v>55</v>
       </c>
+      <c r="H2" t="str">
+        <f>IF(G2&gt;=60, "Yes", "No")</f>
+        <v>No</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
+      </c>
+      <c r="K2">
+        <f>IF(G2&gt;=60, E2+F$2, E2)</f>
+        <v>74</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -548,8 +564,24 @@
       <c r="C3">
         <v>31</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="0">B3+C3</f>
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="1">D3+$D$20</f>
+        <v>51</v>
+      </c>
       <c r="G3">
         <v>68</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="2">IF(G3&gt;=60, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="3">IF(G3&gt;=60, E3+F$2, E3)</f>
+        <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
@@ -565,8 +597,24 @@
       <c r="C4">
         <v>30</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="G4">
         <v>77</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -577,11 +625,27 @@
       <c r="B5">
         <v>15</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="G5">
         <v>98</v>
       </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="I5">
         <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>15</v>
@@ -597,14 +661,30 @@
       <c r="C6">
         <v>32</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="G6">
         <v>83</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -615,14 +695,30 @@
       <c r="C7">
         <v>34</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="G7">
         <v>92</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -636,11 +732,27 @@
       <c r="C8">
         <v>21</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="G8">
         <v>52</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>16</v>
@@ -653,8 +765,24 @@
       <c r="B9">
         <v>25</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="G9">
         <v>33</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -668,14 +796,30 @@
       <c r="C10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="G10">
         <v>8</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
@@ -691,8 +835,24 @@
       <c r="C11">
         <v>11</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="G11">
         <v>42</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -700,14 +860,30 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="G12">
         <v>49</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>22</v>
@@ -723,11 +899,27 @@
       <c r="C13">
         <v>27</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
       <c r="G13">
         <v>39</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J13" t="s">
         <v>13</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -738,14 +930,30 @@
       <c r="C14">
         <v>29</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="G14">
         <v>90</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
+      </c>
+      <c r="K14">
+        <f>IF(G14&gt;=60, E14+F$2, E14)</f>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>17</v>
@@ -761,14 +969,30 @@
       <c r="C15">
         <v>9</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="G15">
         <v>80</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -781,11 +1005,27 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <f>SUM(B2:B15)</f>
+        <v>210</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C15)</f>
+        <v>268</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B15)</f>
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C2:C15)</f>
+        <v>24.363636363636363</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>24</v>
